--- a/nr-publish-ballot-2/ig/StructureDefinition-fr-core-appointment.xlsx
+++ b/nr-publish-ballot-2/ig/StructureDefinition-fr-core-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T08:22:20+00:00</t>
+    <t>2026-01-28T13:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
